--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H2">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I2">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J2">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>77.17865810920767</v>
+        <v>26.98178797544877</v>
       </c>
       <c r="R2">
-        <v>694.607922982869</v>
+        <v>242.836091779039</v>
       </c>
       <c r="S2">
-        <v>0.04937127409237777</v>
+        <v>0.02037144314530056</v>
       </c>
       <c r="T2">
-        <v>0.04937127409237776</v>
+        <v>0.02037144314530056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H3">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I3">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J3">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>28.27804067287767</v>
+        <v>22.74791244842566</v>
       </c>
       <c r="R3">
-        <v>254.502366055899</v>
+        <v>204.731212035831</v>
       </c>
       <c r="S3">
-        <v>0.01808949431176348</v>
+        <v>0.01717483680247734</v>
       </c>
       <c r="T3">
-        <v>0.01808949431176347</v>
+        <v>0.01717483680247734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H4">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I4">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J4">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>855.7145427930632</v>
+        <v>1035.507202071507</v>
       </c>
       <c r="R4">
-        <v>7701.430885137568</v>
+        <v>9319.564818643568</v>
       </c>
       <c r="S4">
-        <v>0.5474015520882678</v>
+        <v>0.7818153531094194</v>
       </c>
       <c r="T4">
-        <v>0.5474015520882676</v>
+        <v>0.7818153531094193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H5">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I5">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J5">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>48.343195380529</v>
+        <v>5.948467587988445</v>
       </c>
       <c r="R5">
-        <v>435.088758424761</v>
+        <v>53.536208291896</v>
       </c>
       <c r="S5">
-        <v>0.03092519626677364</v>
+        <v>0.004491135627506694</v>
       </c>
       <c r="T5">
-        <v>0.03092519626677363</v>
+        <v>0.004491135627506694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H6">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I6">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J6">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
-        <v>17.712809197759</v>
+        <v>5.015057564642666</v>
       </c>
       <c r="R6">
-        <v>159.415282779831</v>
+        <v>45.13551808178399</v>
       </c>
       <c r="S6">
-        <v>0.01133090389588179</v>
+        <v>0.003786404375480544</v>
       </c>
       <c r="T6">
-        <v>0.01133090389588178</v>
+        <v>0.003786404375480543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H7">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I7">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J7">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>536.0027803757547</v>
+        <v>228.2903206509431</v>
       </c>
       <c r="R7">
-        <v>4824.025023381792</v>
+        <v>2054.612885858488</v>
       </c>
       <c r="S7">
-        <v>0.3428815793449357</v>
+        <v>0.1723608269398155</v>
       </c>
       <c r="T7">
-        <v>0.3428815793449356</v>
+        <v>0.1723608269398155</v>
       </c>
     </row>
   </sheetData>
